--- a/data/CSC.xlsx
+++ b/data/CSC.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -388,10 +403,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Appropriate Math Placement Level; or MATH 117 with a grade of C- or better; or MATH 118 with a grade of C- or better; or consent of instructor.</t>
+          <t>Appropriate Math Placement Level; or MATH 117 with a grade of C- or better; or MATH 118 with a grade of C- or better; or consent of instructor.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -415,7 +445,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TBDConcurrent: CPE/CSC 101.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CPE/CSC 101.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>TBD</t>
         </is>
       </c>
     </row>
@@ -432,10 +477,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MATH 118 (or equivalent) with a grade of C- or better, significant experience in computer programming, and consent of instructor.</t>
+          <t>MATH 118 (or equivalent) with a grade of C- or better, significant experience in computer programming, and consent of instructor.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -459,6 +519,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -481,6 +556,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -503,6 +593,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -520,10 +625,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CPE/CSC 101 with a grade of C- or better; MATH 141 or MATH 221 with a grade of C- or better; or consent of instructor.</t>
+          <t>CPE/CSC 101 with a grade of C- or better; MATH 141 or MATH 221 with a grade of C- or better; or consent of instructor.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -542,10 +662,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CPE/CSC 202 with a grade of C- or better or consent of instructor.</t>
+          <t>CPE/CSC 202 with a grade of C- or better or consent of instructor.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -564,10 +699,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CSC/CPE 101 or CSC/CPE 108 with a grade of C- or better, or consent of instructor.</t>
+          <t>CSC/CPE 101 or CSC/CPE 108 with a grade of C- or better, or consent of instructor.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -586,10 +736,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CSC/CPE 202.</t>
+          <t>CSC/CPE 202.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -608,10 +773,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MATH 142; PHYS 121 or PHYS 131 or PHYS 141.</t>
+          <t>MATH 142; PHYS 121 or PHYS 131 or PHYS 141.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -630,10 +810,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MATH 118 or equivalent.</t>
+          <t>MATH 118 or equivalent.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -652,10 +847,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MATH 142.</t>
+          <t>MATH 142.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -674,10 +884,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MATH 141 or MATH 161 with a grade of C- or better, or consent of instructor.</t>
+          <t>MATH 141 or MATH 161 with a grade of C- or better, or consent of instructor.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -696,10 +921,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CSC 235 with a grade of C- or better, or consent of instructor.</t>
+          <t>CSC 235 with a grade of C- or better, or consent of instructor.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -723,6 +963,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -740,10 +995,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CSC/CPE 357 and junior standing.</t>
+          <t>CSC/CPE 357 and junior standing.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -762,10 +1032,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CSC/CPE 102 and CSC/CPE 103, or CSC/CPE 202 and CSC/CPE 203.</t>
+          <t>CSC/CPE 102 and CSC/CPE 103, or CSC/CPE 202 and CSC/CPE 203.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -789,6 +1074,21 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -806,10 +1106,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CSC/CPE 102 and CSC/CPE 103, with a grade of C- or better or consent of instructor, or CSC/CPE 202 and CSC/CPE 203, with a grade of C- or better or consent of instructor.</t>
+          <t>CSC/CPE 102 and CSC/CPE 103, with a grade of C- or better or consent of instructor, or CSC/CPE 202 and CSC/CPE 203, with a grade of C- or better or consent of instructor.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -828,10 +1143,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CSC/CPE 357.</t>
+          <t>CSC/CPE 357.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -850,10 +1180,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CSC 141 or CSC 348; and CPE/CSC 357.</t>
+          <t>CSC 141 or CSC 348; and CPE/CSC 357.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -872,10 +1217,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CSC 141 or CSC 348.</t>
+          <t>CSC 141 or CSC 348.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -894,10 +1254,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CSC 308 and CSC/CPE 357.</t>
+          <t>CSC 308 and CSC/CPE 357.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -921,6 +1296,21 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -943,6 +1333,21 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -960,10 +1365,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CPE/CSC 202.</t>
+          <t>CPE/CSC 202.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -987,6 +1407,21 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1004,10 +1439,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CPE/CSC 357.</t>
+          <t>CPE/CSC 357.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1026,10 +1476,25 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CPE/CSC 357.</t>
+          <t>CPE/CSC 357.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1048,10 +1513,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CSC 300.</t>
+          <t>CSC 300.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1070,10 +1550,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CSC 141 or CSC 348; and CPE/CSC 357.</t>
+          <t>CSC 141 or CSC 348; and CPE/CSC 357.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1092,10 +1587,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CSC/CPE 102 and CSC/CPE 103, with a grade of C- or better or consent of instructor, or CSC/CPE 202 and CSC/CPE 203, with a grade of C- or better or consent of instructor.</t>
+          <t>CSC/CPE 102 and CSC/CPE 103, with a grade of C- or better or consent of instructor, or CSC/CPE 202 and CSC/CPE 203, with a grade of C- or better or consent of instructor.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1114,10 +1624,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CSC 141 and MATH 142; or CSC 348 and MATH 142; or CPE/CSC 102 and CPE/ CSC 103 and MATH 248; or CPE/CSC 202 and CPE/ CSC 203 and MATH 248.</t>
+          <t>CSC 141 and MATH 142; or CSC 348 and MATH 142; or CPE/CSC 102 and CPE/ CSC 103 and MATH 248; or CPE/CSC 202 and CPE/ CSC 203 and MATH 248.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -1136,10 +1661,25 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ART 384; CSC/CPE 103 or CSC/CPE 202; and junior standing.</t>
+          <t>ART 384; CSC/CPE 103 or CSC/CPE 202; and junior standing.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1158,10 +1698,25 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CSC/CPE 102 and CSC/CPE 103 with a grade of C- or better or consent of instructor, or CSC/CPE 202 and CSC/CPE 203 with a grade of C- or better or consent of instructor; and CSC 225 or CPE/EE 229 or CPE/EE 233.</t>
+          <t>CSC/CPE 102 and CSC/CPE 103 with a grade of C- or better or consent of instructor, or CSC/CPE 202 and CSC/CPE 203 with a grade of C- or better or consent of instructor; and CSC 225 or CPE/EE 229 or CPE/EE 233.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1180,10 +1735,25 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CSC 141; or CSC 348; or CPE/CSC 102 and CPE/CSC 103 and MATH 248; or CPE/CSC 202 and CPE/CSC 203 and MATH 248.</t>
+          <t>CSC 141; or CSC 348; or CPE/CSC 102 and CPE/CSC 103 and MATH 248; or CPE/CSC 202 and CPE/CSC 203 and MATH 248.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1202,10 +1772,25 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CSC 365.</t>
+          <t>CSC 365.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1224,10 +1809,25 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CSC/CPE 102 and CSC/CPE 103, or CSC/CPE 202 and CSC/CPE 203; and one of the following: STAT 301, STAT 312, STAT 321 or STAT 350.</t>
+          <t>CSC/CPE 102 and CSC/CPE 103, or CSC/CPE 202 and CSC/CPE 203; and one of the STAT 301, STAT 312, STAT 321 or STAT 350.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -1246,10 +1846,25 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CSC/CPE 102 and CSC/CPE 103; or CSC/CPE 202 and junior standing.</t>
+          <t>CSC/CPE 102 and CSC/CPE 103; or CSC/CPE 202 and junior standing.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -1268,12 +1883,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CPE/CSC 202. Recommended: ART 376.</t>
+          <t>CPE/CSC 202.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>ART 376.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -1290,10 +1920,25 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CPE/CSC 102 and CPE/CSC 103, or CPE/CSC 202 and junior standing.</t>
+          <t>CPE/CSC 102 and CPE/CSC 103, or CPE/CSC 202 and junior standing.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1317,6 +1962,21 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1334,10 +1994,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CSC 307 or CSC 309.</t>
+          <t>CSC 307 or CSC 309.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1356,10 +2031,25 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CSC 305 and CSC 402.</t>
+          <t>CSC 305 and CSC 402.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1378,10 +2068,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CSC 405.</t>
+          <t>CSC 405.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1400,10 +2105,25 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CSC 307 or CSC 309.</t>
+          <t>CSC 307 or CSC 309.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1422,10 +2142,25 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CSC 349; STAT 301, STAT 312, STAT 321 or STAT 350.</t>
+          <t>CSC 349; STAT 301, STAT 312, STAT 321 or STAT 350.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1444,10 +2179,25 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CPE 464.</t>
+          <t>CPE 464.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1466,10 +2216,25 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CPE/CSC 307 or CPE/CSC 309; CPE/CSC 321.</t>
+          <t>CPE/CSC 307 or CPE/CSC 309; CPE/CSC 321.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1488,10 +2253,25 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CPE/CSC 321 and CPE/CSC 357.</t>
+          <t>CPE/CSC 321 and CPE/CSC 357.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1510,10 +2290,25 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CSC 349 and CSC/CPE 357.</t>
+          <t>CSC 349 and CSC/CPE 357.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1532,10 +2327,25 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CSC 430.</t>
+          <t>CSC 430.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1554,10 +2364,25 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CSC 305.</t>
+          <t>CSC 305.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1576,10 +2401,25 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CSC/CPE 357.</t>
+          <t>CSC/CPE 357.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1598,10 +2438,25 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CPE/CSC 357 with a grade of C- or better and CSC 365 with a grade of C- or better; or consent of instructor.</t>
+          <t>CPE/CSC 357 with a grade of C- or better and CSC 365 with a grade of C- or better; or consent of instructor.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1620,10 +2475,25 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CSC 141 or CSC 348.</t>
+          <t>CSC 141 or CSC 348.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1642,10 +2512,25 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CSC 349.</t>
+          <t>CSC 349.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1664,10 +2549,25 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ART/CSC 350.</t>
+          <t>ART/CSC 350.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1686,10 +2586,25 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CSC/CPE 357, and CSC/CPE 225 or CPE/EE 229 or CPE/EE 233.</t>
+          <t>CSC/CPE 357, and CSC/CPE 225 or CPE/EE 229 or CPE/EE 233.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1708,10 +2623,25 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CSC/CPE 453.</t>
+          <t>CSC/CPE 453.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1730,10 +2660,25 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CSC/CPE 357.</t>
+          <t>CSC/CPE 357.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1752,10 +2697,25 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CSC 349 and one of the following: STAT 302, STAT 312, STAT 321 or STAT 350.</t>
+          <t>CSC 349 and one of the STAT 302, STAT 312, STAT 321 or STAT 350.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -1774,10 +2734,25 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CSC 365.</t>
+          <t>CSC 365.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1796,10 +2771,25 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CSC/CPE 357.</t>
+          <t>CSC/CPE 357.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1818,10 +2808,25 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CPE/CSC 357.</t>
+          <t>CPE/CSC 357.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1840,10 +2845,25 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CSC/CPE 471.</t>
+          <t>CSC/CPE 471.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1862,10 +2882,25 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CSC/CPE 471.</t>
+          <t>CSC/CPE 471.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1884,10 +2919,25 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CSC/CPE 471.</t>
+          <t>CSC/CPE 471.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1906,10 +2956,25 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CSC 349.</t>
+          <t>CSC 349.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1928,10 +2993,25 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CSC/CPE 471.</t>
+          <t>CSC/CPE 471.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1950,10 +3030,25 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>either CSC/CPE 102 and CSC/CPE 103 with a grade of C- or better or consent of instructor; or CSC/CPE 202 with a grade of C- or better and junior standing.</t>
+          <t>either CSC/CPE 102 and CSC/CPE 103 with a grade of C- or better or consent of instructor; or CSC/CPE 202 with a grade of C- or better and junior standing.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -1972,10 +3067,25 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CSC 480.</t>
+          <t>CSC 480.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1994,12 +3104,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CSC 466 or CSC 480 or graduate standing. Recommended: CSC 349.</t>
+          <t>CSC 466 or CSC 480 or graduate standing.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>F, W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>CSC 349.</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W </t>
         </is>
       </c>
     </row>
@@ -2016,10 +3141,25 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CSC 484.</t>
+          <t>CSC 484.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2038,10 +3178,25 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CSC 307 or CSC 308; junior standing.</t>
+          <t>CSC 307 or CSC 308; junior standing.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -2065,7 +3220,22 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SPCorequisite: CSC 484.</t>
+          <t>CSC 484.</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>SP</t>
         </is>
       </c>
     </row>
@@ -2082,12 +3252,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CSC 349, and MATH 206 or MATH 244. Recommended: CSC 466 or CSC 480.</t>
+          <t>CSC 349, and MATH 206 or MATH 244.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>CSC 466 or CSC 480.</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -2104,10 +3289,25 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CSC 480.</t>
+          <t>CSC 480.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2131,6 +3331,21 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -2148,10 +3363,25 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CSC 307 or CSC 309; and consent of instructor.</t>
+          <t>CSC 307 or CSC 309; and consent of instructor.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -2170,10 +3400,25 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CSC 491 and consent of instructor.</t>
+          <t>CSC 491 and consent of instructor.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -2197,6 +3442,21 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2219,6 +3479,21 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2241,6 +3516,21 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2263,6 +3553,21 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -2280,10 +3585,25 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CSC 307 or CSC 309; and consent of instructor.</t>
+          <t>CSC 307 or CSC 309; and consent of instructor.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -2302,10 +3622,25 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CSC 497 and consent of instructor.</t>
+          <t>CSC 497 and consent of instructor.</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -2329,6 +3664,21 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2346,10 +3696,25 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CSC 307 or CSC 308 and graduate standing, or consent of instructor.</t>
+          <t>CSC 307 or CSC 308 and graduate standing, or consent of instructor.</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2368,10 +3733,25 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CSC 508 and graduate standing, or consent of instructor.</t>
+          <t>CSC 508 and graduate standing, or consent of instructor.</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2390,10 +3770,25 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CPE 315 or CPE 333, and graduate standing; or consent of instructor.</t>
+          <t>CPE 315 or CPE 333, and graduate standing; or consent of instructor.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -2412,10 +3807,25 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CPE/CSC 321 and graduate standing.</t>
+          <t>CPE/CSC 321 and graduate standing.</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2434,10 +3844,25 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CSC 430 and graduate standing, or consent of instructor.</t>
+          <t>CSC 430 and graduate standing, or consent of instructor.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2456,10 +3881,25 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CSC 445 and graduate standing, or consent of instructor.</t>
+          <t>CSC 445 and graduate standing, or consent of instructor.</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2478,10 +3918,25 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CSC/CPE 453 and graduate standing, or consent of instructor.</t>
+          <t>CSC/CPE 453 and graduate standing, or consent of instructor.</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2500,10 +3955,25 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CSC 365 and graduate standing, or consent of instructor.</t>
+          <t>CSC 365 and graduate standing, or consent of instructor.</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2522,10 +3992,25 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CSC/CPE 464 and graduate standing, or consent of instructor.</t>
+          <t>CSC/CPE 464 and graduate standing, or consent of instructor.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2544,10 +4029,25 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CSC 466 or CSC 480 or CSC 582.</t>
+          <t>CSC 466 or CSC 480 or CSC 582.</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2566,10 +4066,25 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CSC 141 or CSC 348; and CPE/CSC 357; or graduate standing and consent of instructor.</t>
+          <t>CSC 141 or CSC 348; and CPE/CSC 357; or graduate standing and consent of instructor.</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2593,6 +4108,21 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -2610,10 +4140,25 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Successful completion of CSC/CPE 471 and graduate standing, or consent of instructor.</t>
+          <t>Successful completion of CSC/CPE 471 and graduate standing, or consent of instructor.</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -2632,10 +4177,25 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CSC 480 and graduate standing, or consent of instructor.</t>
+          <t>CSC 480 and graduate standing, or consent of instructor.</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2654,10 +4214,25 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CSC 480 or CSC 484 or consent of instructor.</t>
+          <t>CSC 480 or CSC 484 or consent of instructor.</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2676,12 +4251,27 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CSC 482 and graduate standing. Recommended: CSC 580.</t>
+          <t>CSC 482 and graduate standing.</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>CSC 580.</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -2703,6 +4293,21 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2725,6 +4330,21 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2747,6 +4367,21 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2769,6 +4404,21 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2791,6 +4441,21 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2808,10 +4473,25 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CSC 596 and consent of instructor.</t>
+          <t>CSC 596 and consent of instructor.</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -2830,10 +4510,25 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CSC 590; CSC 498 or CSC 597; selection of thesis committee; graduate standing; and consent of instructor.</t>
+          <t>CSC 590; CSC 498 or CSC 597; selection of thesis committee; graduate standing; and consent of instructor.</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
